--- a/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,09</t>
+          <t>0,23; 2,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,43</t>
+          <t>-0,39; 1,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,38</t>
+          <t>-1,04; 1,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,86</t>
+          <t>-2,83; -0,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,34</t>
+          <t>-0,19; 1,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; -0,08</t>
+          <t>-1,41; -0,14</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 565,42</t>
+          <t>11,09; 630,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,38; 468,97</t>
+          <t>-58,42; 363,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 78,84</t>
+          <t>-34,97; 81,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,13; -40,02</t>
+          <t>-90,76; -40,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 106,42</t>
+          <t>-10,81; 109,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,55; -0,75</t>
+          <t>-75,1; -10,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,3</t>
+          <t>-0,76; 1,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,66</t>
+          <t>-2,37; -0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,34</t>
+          <t>-3,77; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -4,65</t>
+          <t>-8,06; -4,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,49</t>
+          <t>-1,88; 0,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -2,93</t>
+          <t>-4,88; -2,89</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 74,35</t>
+          <t>-26,88; 76,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,43; -33,81</t>
+          <t>-80,89; -36,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 3,8</t>
+          <t>-32,48; 2,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -47,37</t>
+          <t>-69,02; -48,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 8,86</t>
+          <t>-27,46; 6,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,99; -50,53</t>
+          <t>-69,11; -49,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,77</t>
+          <t>-2,63; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,55</t>
+          <t>-4,62; -0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 7,58</t>
+          <t>-1,68; 7,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,52</t>
+          <t>-11,78; -3,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,3</t>
+          <t>-1,1; 4,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -2,73</t>
+          <t>-6,65; -2,67</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 104,06</t>
+          <t>-51,87; 114,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,47; -16,3</t>
+          <t>-86,47; -13,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 67,92</t>
+          <t>-11,28; 68,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,65; -30,28</t>
+          <t>-72,66; -32,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 59,43</t>
+          <t>-11,8; 55,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,12; -38,11</t>
+          <t>-70,09; -37,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,21</t>
+          <t>-0,28; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,47</t>
+          <t>-1,68; -0,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,97</t>
+          <t>-1,67; 0,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -3,26</t>
+          <t>-5,35; -3,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,81</t>
+          <t>-0,65; 0,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,11</t>
+          <t>-3,34; -2,1</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 71,26</t>
+          <t>-11,85; 70,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,5; -28,27</t>
+          <t>-69,2; -26,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 13,81</t>
+          <t>-19,81; 13,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,49; -45,34</t>
+          <t>-63,38; -43,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 17,42</t>
+          <t>-11,99; 18,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,48; -45,98</t>
+          <t>-62,12; -45,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,11</t>
+          <t>0,24; 2,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,35</t>
+          <t>-0,41; 1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,41</t>
+          <t>-0,92; 1,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,84</t>
+          <t>-2,72; -0,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,38</t>
+          <t>-0,24; 1,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; -0,14</t>
+          <t>-1,45; -0,16</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 630,88</t>
+          <t>10,46; 646,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 363,83</t>
+          <t>-49,02; 481,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 81,75</t>
+          <t>-33,72; 77,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-90,76; -40,15</t>
+          <t>-90,97; -31,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 109,23</t>
+          <t>-12,93; 110,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,1; -10,99</t>
+          <t>-74,7; -4,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,31</t>
+          <t>-0,58; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,73</t>
+          <t>-2,4; -0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,28</t>
+          <t>-3,79; 0,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -4,65</t>
+          <t>-8,11; -4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,38</t>
+          <t>-1,91; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -2,89</t>
+          <t>-4,9; -2,83</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 76,25</t>
+          <t>-21,77; 85,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,89; -36,28</t>
+          <t>-82,26; -38,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 2,71</t>
+          <t>-31,66; 3,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,02; -48,91</t>
+          <t>-68,52; -48,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 6,53</t>
+          <t>-27,12; 7,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,11; -49,94</t>
+          <t>-68,38; -48,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,57</t>
+          <t>-2,78; 2,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -0,57</t>
+          <t>-4,72; -0,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,65</t>
+          <t>-1,96; 7,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -3,81</t>
+          <t>-11,13; -3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,06</t>
+          <t>-1,25; 4,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -2,67</t>
+          <t>-6,82; -2,47</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 114,25</t>
+          <t>-55,28; 101,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,47; -13,74</t>
+          <t>-86,27; -12,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 68,6</t>
+          <t>-14,57; 63,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,66; -32,88</t>
+          <t>-71,58; -31,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 55,22</t>
+          <t>-13,94; 59,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,09; -37,9</t>
+          <t>-71,08; -34,73</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,23</t>
+          <t>-0,18; 1,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,48</t>
+          <t>-1,67; -0,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,92</t>
+          <t>-1,63; 0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -3,17</t>
+          <t>-5,36; -3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,85</t>
+          <t>-0,74; 0,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -2,1</t>
+          <t>-3,38; -2,13</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 70,53</t>
+          <t>-9,35; 71,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,2; -26,33</t>
+          <t>-70,16; -26,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 13,02</t>
+          <t>-19,09; 13,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,38; -43,74</t>
+          <t>-63,52; -43,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 18,76</t>
+          <t>-13,97; 17,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,12; -45,22</t>
+          <t>-63,06; -46,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,1</t>
+          <t>0,2; 2,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,4</t>
+          <t>-0,31; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,41</t>
+          <t>-1,08; 1,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,75</t>
+          <t>-2,78; -0,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,4</t>
+          <t>-0,25; 1,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; -0,16</t>
+          <t>-1,39; -0,08</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 646,83</t>
+          <t>-0,65; 565,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 481,61</t>
+          <t>-47,38; 468,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 77,15</t>
+          <t>-37,54; 78,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-90,97; -31,65</t>
+          <t>-91,13; -40,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 110,04</t>
+          <t>-12,78; 106,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,7; -4,66</t>
+          <t>-72,55; -0,75</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,46</t>
+          <t>-0,85; 1,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; -0,69</t>
+          <t>-2,42; -0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,31</t>
+          <t>-3,74; 0,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -4,63</t>
+          <t>-8,2; -4,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,41</t>
+          <t>-1,85; 0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; -2,83</t>
+          <t>-4,84; -2,93</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 85,65</t>
+          <t>-30,4; 74,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,26; -38,21</t>
+          <t>-81,43; -33,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 3,59</t>
+          <t>-31,71; 3,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -48,55</t>
+          <t>-68,71; -47,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 7,58</t>
+          <t>-26,63; 8,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -48,12</t>
+          <t>-68,99; -50,53</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,37</t>
+          <t>-2,56; 2,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; -0,54</t>
+          <t>-4,6; -0,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,6</t>
+          <t>-2,01; 7,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -3,6</t>
+          <t>-11,16; -3,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,17</t>
+          <t>-1,1; 4,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -2,47</t>
+          <t>-6,73; -2,73</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 101,11</t>
+          <t>-52,74; 104,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,27; -12,32</t>
+          <t>-85,47; -16,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 63,35</t>
+          <t>-14,39; 67,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,58; -31,48</t>
+          <t>-70,65; -30,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 59,29</t>
+          <t>-12,68; 59,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,08; -34,73</t>
+          <t>-70,12; -38,11</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,27</t>
+          <t>-0,28; 1,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,47</t>
+          <t>-1,71; -0,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,97</t>
+          <t>-1,6; 0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -3,01</t>
+          <t>-5,4; -3,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,82</t>
+          <t>-0,74; 0,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; -2,13</t>
+          <t>-3,36; -2,11</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 71,99</t>
+          <t>-12,11; 71,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,16; -26,57</t>
+          <t>-69,5; -28,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 13,64</t>
+          <t>-18,72; 13,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,52; -43,58</t>
+          <t>-63,49; -45,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 17,48</t>
+          <t>-13,6; 17,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,06; -46,43</t>
+          <t>-62,48; -45,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,09</t>
+          <t>0,19; 2,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,43</t>
+          <t>-0,4; 1,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,38</t>
+          <t>-1,12; 1,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,86</t>
+          <t>-2,7; -0,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,34</t>
+          <t>-0,21; 1,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; -0,08</t>
+          <t>-1,43; -0,18</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 565,42</t>
+          <t>2,54; 621,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,38; 468,97</t>
+          <t>-51,68; 411,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 78,84</t>
+          <t>-37,89; 77,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,13; -40,02</t>
+          <t>-91,17; -40,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 106,42</t>
+          <t>-11,63; 111,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,55; -0,75</t>
+          <t>-73,45; -6,6</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,3</t>
+          <t>-0,72; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,66</t>
+          <t>-2,39; -0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,34</t>
+          <t>-3,93; 0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -4,65</t>
+          <t>-8,02; -4,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,49</t>
+          <t>-1,84; 0,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -2,93</t>
+          <t>-4,72; -2,85</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 74,35</t>
+          <t>-25,39; 80,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,43; -33,81</t>
+          <t>-81,37; -38,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 3,8</t>
+          <t>-32,45; 2,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -47,37</t>
+          <t>-68,39; -47,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 8,86</t>
+          <t>-26,65; 7,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,99; -50,53</t>
+          <t>-68,6; -49,93</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,77</t>
+          <t>-2,7; 2,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,55</t>
+          <t>-4,52; -0,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 7,58</t>
+          <t>-2,17; 7,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,52</t>
+          <t>-11,33; -4,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,3</t>
+          <t>-1,27; 4,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -2,73</t>
+          <t>-6,89; -2,73</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 104,06</t>
+          <t>-55,36; 93,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,47; -16,3</t>
+          <t>-86,79; -15,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 67,92</t>
+          <t>-13,95; 63,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,65; -30,28</t>
+          <t>-71,9; -35,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 59,43</t>
+          <t>-13,88; 57,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,12; -38,11</t>
+          <t>-70,84; -37,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,21</t>
+          <t>-0,22; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,47</t>
+          <t>-1,69; -0,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,97</t>
+          <t>-1,69; 0,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -3,26</t>
+          <t>-5,45; -3,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,81</t>
+          <t>-0,65; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,11</t>
+          <t>-3,36; -2,04</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 71,26</t>
+          <t>-9,35; 74,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,5; -28,27</t>
+          <t>-69,73; -29,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 13,81</t>
+          <t>-20,22; 11,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,49; -45,34</t>
+          <t>-63,84; -45,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 17,42</t>
+          <t>-12,31; 18,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,48; -45,98</t>
+          <t>-62,89; -45,2</t>
         </is>
       </c>
     </row>
